--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\spkt\public\cetak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\spkt\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB9D932-B93E-42A2-93ED-3DA7A10DF58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50259121-F4B9-4D2C-BF6A-C7EEF2592456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{293B5996-C2E3-43BE-8B89-F6862F87463B}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,8 +67,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,11 +389,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2853967F-C149-4D0E-8E4A-661B8F5F52A0}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="46" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.77734375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
